--- a/biology/Mycologie/Austroboletus/Austroboletus.xlsx
+++ b/biology/Mycologie/Austroboletus/Austroboletus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austroboletus est un genre de champignons de la famille des Boletaceae. On les trouve en Asie, en Australie et en Amérique tropicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces espèces étaient regroupées dans le genre Boletus jusqu'en 1967, dont Austroboletus était un sous-genre.
 </t>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuticule visqueuse ou sèche, tomenteux à subtomenteux, parfois avec des restes appendiculés à la marge.
 Chair blanche ou jaune, immuable.
-Hyménium tubulé, adné[1], d'abord blanc, puis rosé à rose brunâtre à maturité (rarement jaune), parfois coloration brunâtre légère à brun rosâtre.
+Hyménium tubulé, adné, d'abord blanc, puis rosé à rose brunâtre à maturité (rarement jaune), parfois coloration brunâtre légère à brun rosâtre.
 Stipe central, pruineux, alvéolé et réticulé, sec ou parfois gluant-visqueux, pas de coloration, mais peut développer des taches in situ en vieillissant ; mycélium basal blanc.
-Sporée : les spores en masse sont rose vinacé, parfois verruqueuses, amygdaliformes à fusiformes, non-amyloïdes ou dextrinoïdes. Réaction nulle à la potasse (KOH[2]) et à l'ammoniaque (NH4OH).
+Sporée : les spores en masse sont rose vinacé, parfois verruqueuses, amygdaliformes à fusiformes, non-amyloïdes ou dextrinoïdes. Réaction nulle à la potasse (KOH) et à l'ammoniaque (NH4OH).
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Boletaceae
@@ -587,7 +605,7 @@
 Xerocomus sp.
 Retiboletus sp.
 Boletus modestus
-Austroboletus sp. ([3]?)
+Austroboletus sp. (?)
 Austroboletus gracilis
 Austroboletus novaezaelandicae
 Austroboletus niveus
@@ -621,7 +639,9 @@
           <t>Classification Linnéenne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Boletaceae
@@ -631,14 +651,14 @@
 Austroboletus eburneus Watling &amp; N.M. Greg., Asie
 Austroboletus fusisporus (Kawan. ex Imaz. et Hongo, Asie
 Austroboletus gracilis, (Peck) Bolet gracile  Asie, Amérique du Nord, Amérique du Sud
-Austroboletus festivus[4] Guyane
+Austroboletus festivus Guyane
 Austroboletus lacunosus, Bolet lacuneux
 Austroboletus latitubulosus E. Horak, Asie
 Austroboletus malaccencis (Pat &amp; baker) Wolfe, Asie
 Austroboletus niveus (McNabb) Wolfe, Bolet des neiges, Australie
 Austroboletus novae-zaelandiae(McNabb) Wolfe, Bolet de Nouvelle-Zélande
 Austroboletus occidentalis Watling &amp; MN Greg., Australie
-Austroboletus Rostrupii[5] , Bolet de Rostrup[6] Guyane
+Austroboletus Rostrupii , Bolet de Rostrup Guyane
 Austroboletus purpurascens (Heinem) Horak
 Austroboletus rarus (Corner) Horak
 Austroboletus sichianus (Teng &amp; Ling) Horak, Asie
@@ -672,7 +692,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Distribuée surtout hors d'Europe : Asie, Australasie et Amérique tropicale.
 Mycorhizes avec les Pinacées, Fagacées, Myrtacées, Diptérocarpacées, Casuarinacées.
@@ -704,9 +726,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (26 juin 2020)[7] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (26 juin 2020) :
 Austroboletus amazonicus Vasco-Palac. &amp; López-Quint. 2014
 Austroboletus appendiculatus Semwal, D. Chakr., K. Das, Indoliya, D. Chakrabarty, S. Adhikari &amp; Karun. 2017
 Austroboletus austrovirens N.A. Fechner, Bougher, Bonito &amp; Halling 2017
